--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H2">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J2">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.28411963215797</v>
+        <v>2.553279333333334</v>
       </c>
       <c r="N2">
-        <v>2.28411963215797</v>
+        <v>7.659838000000001</v>
       </c>
       <c r="O2">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="P2">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="Q2">
-        <v>19.38127479610622</v>
+        <v>23.38027502197378</v>
       </c>
       <c r="R2">
-        <v>19.38127479610622</v>
+        <v>210.422475197764</v>
       </c>
       <c r="S2">
-        <v>0.1469181989229617</v>
+        <v>0.1594819831535652</v>
       </c>
       <c r="T2">
-        <v>0.1469181989229617</v>
+        <v>0.1594819831535652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H3">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J3">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.01234071591097</v>
+        <v>8.058662</v>
       </c>
       <c r="N3">
-        <v>8.01234071591097</v>
+        <v>24.175986</v>
       </c>
       <c r="O3">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="P3">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="Q3">
-        <v>67.98653406274872</v>
+        <v>73.79284021507868</v>
       </c>
       <c r="R3">
-        <v>67.98653406274872</v>
+        <v>664.1355619357081</v>
       </c>
       <c r="S3">
-        <v>0.5153664679229643</v>
+        <v>0.5033571456697684</v>
       </c>
       <c r="T3">
-        <v>0.5153664679229643</v>
+        <v>0.5033571456697683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H4">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J4">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.7495252968805</v>
+        <v>4.909099333333334</v>
       </c>
       <c r="N4">
-        <v>4.7495252968805</v>
+        <v>14.727298</v>
       </c>
       <c r="O4">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="P4">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="Q4">
-        <v>40.30080282744691</v>
+        <v>44.95242295862712</v>
       </c>
       <c r="R4">
-        <v>40.30080282744691</v>
+        <v>404.5718066276441</v>
       </c>
       <c r="S4">
-        <v>0.305497003104638</v>
+        <v>0.3066303349409654</v>
       </c>
       <c r="T4">
-        <v>0.305497003104638</v>
+        <v>0.3066303349409653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H5">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I5">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J5">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.28411963215797</v>
+        <v>2.553279333333334</v>
       </c>
       <c r="N5">
-        <v>2.28411963215797</v>
+        <v>7.659838000000001</v>
       </c>
       <c r="O5">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="P5">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="Q5">
-        <v>0.6452202263674461</v>
+        <v>0.7362917146326667</v>
       </c>
       <c r="R5">
-        <v>0.6452202263674461</v>
+        <v>6.626625431694</v>
       </c>
       <c r="S5">
-        <v>0.004891040169639176</v>
+        <v>0.005022407252215609</v>
       </c>
       <c r="T5">
-        <v>0.004891040169639176</v>
+        <v>0.005022407252215608</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H6">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I6">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J6">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.01234071591097</v>
+        <v>8.058662</v>
       </c>
       <c r="N6">
-        <v>8.01234071591097</v>
+        <v>24.175986</v>
       </c>
       <c r="O6">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="P6">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="Q6">
-        <v>2.263333416371442</v>
+        <v>2.323884419602</v>
       </c>
       <c r="R6">
-        <v>2.263333416371442</v>
+        <v>20.914959776418</v>
       </c>
       <c r="S6">
-        <v>0.01715701740951797</v>
+        <v>0.01585172524743513</v>
       </c>
       <c r="T6">
-        <v>0.01715701740951797</v>
+        <v>0.01585172524743513</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H7">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I7">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J7">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.7495252968805</v>
+        <v>4.909099333333334</v>
       </c>
       <c r="N7">
-        <v>4.7495252968805</v>
+        <v>14.727298</v>
       </c>
       <c r="O7">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="P7">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="Q7">
-        <v>1.341650298892579</v>
+        <v>1.415641883852667</v>
       </c>
       <c r="R7">
-        <v>1.341650298892579</v>
+        <v>12.740776954674</v>
       </c>
       <c r="S7">
-        <v>0.01017027247027898</v>
+        <v>0.009656403736050348</v>
       </c>
       <c r="T7">
-        <v>0.01017027247027898</v>
+        <v>0.009656403736050348</v>
       </c>
     </row>
   </sheetData>
